--- a/test_data/class_alge.xlsx
+++ b/test_data/class_alge.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenwenli/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenwenli/Desktop/TMIC_debug/Feature_selection/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A071E013-A169-F347-AD49-EB8DA3D48C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F3D531-6F44-CE4C-9F84-0034AEC8FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36,6 +32,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1290,7 +1287,7 @@
   <dimension ref="A1:BR1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
